--- a/room_availability.xlsx
+++ b/room_availability.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -526,7 +526,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -558,7 +558,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -590,7 +590,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -622,7 +622,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -654,7 +654,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -686,7 +686,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -718,7 +718,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -750,7 +750,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -782,7 +782,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -814,7 +814,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -846,7 +846,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -878,7 +878,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -910,7 +910,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -942,7 +942,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -974,7 +974,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1006,7 +1006,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1038,7 +1038,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1070,7 +1070,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1183,12 +1183,12 @@
           <t>9:45</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1215,12 +1215,12 @@
           <t>9:50</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1247,12 +1247,12 @@
           <t>9:55</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1279,12 +1279,12 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1311,12 +1311,12 @@
           <t>10:05</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1343,12 +1343,12 @@
           <t>10:10</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1375,12 +1375,12 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1407,12 +1407,12 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1439,12 +1439,12 @@
           <t>10:25</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1471,12 +1471,12 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1503,12 +1503,12 @@
           <t>10:35</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1535,12 +1535,12 @@
           <t>10:40</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1567,12 +1567,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1599,12 +1599,12 @@
           <t>10:50</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1631,12 +1631,12 @@
           <t>10:55</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1663,12 +1663,12 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1695,12 +1695,12 @@
           <t>11:05</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1727,12 +1727,12 @@
           <t>11:10</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3039,7 +3039,7 @@
           <t>14:35</t>
         </is>
       </c>
-      <c r="B82" s="4" t="inlineStr">
+      <c r="B82" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3071,7 +3071,7 @@
           <t>14:40</t>
         </is>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="B83" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3103,7 +3103,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B84" s="4" t="inlineStr">
+      <c r="B84" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3135,7 +3135,7 @@
           <t>14:50</t>
         </is>
       </c>
-      <c r="B85" s="4" t="inlineStr">
+      <c r="B85" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3167,7 +3167,7 @@
           <t>14:55</t>
         </is>
       </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="B86" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3199,7 +3199,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B87" s="4" t="inlineStr">
+      <c r="B87" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3231,7 +3231,7 @@
           <t>15:05</t>
         </is>
       </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="B88" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3263,7 +3263,7 @@
           <t>15:10</t>
         </is>
       </c>
-      <c r="B89" s="4" t="inlineStr">
+      <c r="B89" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3295,7 +3295,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B90" s="4" t="inlineStr">
+      <c r="B90" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3327,7 +3327,7 @@
           <t>15:20</t>
         </is>
       </c>
-      <c r="B91" s="4" t="inlineStr">
+      <c r="B91" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3359,7 +3359,7 @@
           <t>15:25</t>
         </is>
       </c>
-      <c r="B92" s="4" t="inlineStr">
+      <c r="B92" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3391,7 +3391,7 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B93" s="4" t="inlineStr">
+      <c r="B93" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3423,7 +3423,7 @@
           <t>15:35</t>
         </is>
       </c>
-      <c r="B94" s="4" t="inlineStr">
+      <c r="B94" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3455,7 +3455,7 @@
           <t>15:40</t>
         </is>
       </c>
-      <c r="B95" s="4" t="inlineStr">
+      <c r="B95" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3487,7 +3487,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B96" s="4" t="inlineStr">
+      <c r="B96" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3519,7 +3519,7 @@
           <t>15:50</t>
         </is>
       </c>
-      <c r="B97" s="4" t="inlineStr">
+      <c r="B97" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3551,7 +3551,7 @@
           <t>15:55</t>
         </is>
       </c>
-      <c r="B98" s="4" t="inlineStr">
+      <c r="B98" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3583,7 +3583,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B99" s="4" t="inlineStr">
+      <c r="B99" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/room_availability.xlsx
+++ b/room_availability.xlsx
@@ -516,7 +516,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -526,12 +526,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -548,7 +548,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -558,12 +558,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -580,7 +580,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -590,12 +590,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -612,7 +612,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -622,12 +622,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -644,7 +644,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -654,12 +654,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -676,7 +676,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -686,12 +686,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -708,7 +708,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -718,12 +718,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -740,7 +740,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -750,12 +750,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -772,7 +772,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -782,12 +782,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -804,7 +804,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -814,12 +814,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -836,7 +836,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -846,12 +846,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -868,7 +868,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -878,12 +878,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -900,7 +900,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -910,12 +910,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -932,7 +932,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -942,12 +942,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -964,7 +964,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -974,12 +974,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -996,7 +996,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1006,12 +1006,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1028,7 +1028,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1038,12 +1038,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1060,7 +1060,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1070,12 +1070,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1183,7 +1183,7 @@
           <t>9:45</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1215,7 +1215,7 @@
           <t>9:50</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1247,7 +1247,7 @@
           <t>9:55</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1279,7 +1279,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1311,7 +1311,7 @@
           <t>10:05</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1343,7 +1343,7 @@
           <t>10:10</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1375,7 +1375,7 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1407,7 +1407,7 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1439,7 +1439,7 @@
           <t>10:25</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1471,7 +1471,7 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1503,7 +1503,7 @@
           <t>10:35</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1535,7 +1535,7 @@
           <t>10:40</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1567,7 +1567,7 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1599,7 +1599,7 @@
           <t>10:50</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1631,7 +1631,7 @@
           <t>10:55</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1663,7 +1663,7 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1695,7 +1695,7 @@
           <t>11:05</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1727,7 +1727,7 @@
           <t>11:10</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/room_availability.xlsx
+++ b/room_availability.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -42,14 +42,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -474,7 +474,7 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>room B1-121</t>
+          <t>B1-121</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -548,12 +548,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -580,12 +580,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -612,12 +612,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -644,12 +644,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -659,7 +659,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -676,12 +676,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -691,7 +691,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -708,12 +708,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -723,7 +723,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -740,7 +740,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -755,7 +755,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -772,7 +772,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -787,7 +787,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -804,7 +804,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -819,7 +819,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -836,7 +836,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -851,7 +851,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -868,7 +868,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -883,7 +883,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -900,7 +900,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -915,7 +915,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -932,7 +932,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -947,7 +947,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -964,7 +964,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -979,7 +979,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -996,7 +996,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1011,7 +1011,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1028,7 +1028,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1043,7 +1043,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1060,7 +1060,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1075,7 +1075,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1092,7 +1092,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1102,7 +1102,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1124,7 +1124,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1134,7 +1134,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1156,7 +1156,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1166,7 +1166,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1188,7 +1188,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1198,7 +1198,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1220,7 +1220,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1230,12 +1230,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1252,7 +1252,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1262,12 +1262,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1284,7 +1284,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1294,12 +1294,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1316,22 +1316,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1348,22 +1348,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1375,27 +1375,27 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1407,12 +1407,12 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1422,12 +1422,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1439,12 +1439,12 @@
           <t>10:25</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1454,12 +1454,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1471,12 +1471,12 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1486,12 +1486,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1503,12 +1503,12 @@
           <t>10:35</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1518,12 +1518,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1535,12 +1535,12 @@
           <t>10:40</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1550,12 +1550,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F35" s="3" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1567,12 +1567,12 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1582,12 +1582,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1599,12 +1599,12 @@
           <t>10:50</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1614,12 +1614,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1631,12 +1631,12 @@
           <t>10:55</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1646,12 +1646,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1663,12 +1663,12 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1678,12 +1678,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F39" s="3" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1695,12 +1695,12 @@
           <t>11:05</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1710,12 +1710,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1727,12 +1727,12 @@
           <t>11:10</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1742,12 +1742,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="inlineStr">
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1759,12 +1759,12 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1774,12 +1774,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F42" s="3" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1791,12 +1791,12 @@
           <t>11:20</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1806,12 +1806,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="inlineStr">
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1823,12 +1823,12 @@
           <t>11:25</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1838,12 +1838,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1855,12 +1855,12 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1870,12 +1870,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1887,12 +1887,12 @@
           <t>11:35</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1902,12 +1902,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F46" s="3" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1919,12 +1919,12 @@
           <t>11:40</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1934,12 +1934,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F47" s="3" t="inlineStr">
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1951,12 +1951,12 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1966,12 +1966,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1983,27 +1983,27 @@
           <t>11:50</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2015,27 +2015,27 @@
           <t>11:55</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2047,27 +2047,27 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F51" s="3" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2079,22 +2079,22 @@
           <t>12:05</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2111,22 +2111,22 @@
           <t>12:10</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2143,22 +2143,22 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2175,22 +2175,22 @@
           <t>12:20</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2207,22 +2207,22 @@
           <t>12:25</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2239,22 +2239,22 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E57" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2271,22 +2271,22 @@
           <t>12:35</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2303,22 +2303,22 @@
           <t>12:40</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C59" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2335,22 +2335,22 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E60" s="3" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2367,22 +2367,22 @@
           <t>12:50</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2399,22 +2399,22 @@
           <t>12:55</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2431,22 +2431,22 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2463,22 +2463,22 @@
           <t>13:05</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2495,22 +2495,22 @@
           <t>13:10</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E65" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2527,22 +2527,22 @@
           <t>13:15</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2559,22 +2559,22 @@
           <t>13:20</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E67" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2591,22 +2591,22 @@
           <t>13:25</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2623,22 +2623,22 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr">
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2655,27 +2655,27 @@
           <t>13:35</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F70" s="3" t="inlineStr">
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C70" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2687,27 +2687,27 @@
           <t>13:40</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="inlineStr">
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E71" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2719,27 +2719,27 @@
           <t>13:45</t>
         </is>
       </c>
-      <c r="B72" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F72" s="3" t="inlineStr">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E72" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2751,17 +2751,17 @@
           <t>13:50</t>
         </is>
       </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2771,7 +2771,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F73" s="3" t="inlineStr">
+      <c r="F73" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2783,17 +2783,17 @@
           <t>13:55</t>
         </is>
       </c>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2803,7 +2803,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F74" s="3" t="inlineStr">
+      <c r="F74" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2815,17 +2815,17 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C75" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2835,7 +2835,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F75" s="3" t="inlineStr">
+      <c r="F75" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2847,17 +2847,17 @@
           <t>14:05</t>
         </is>
       </c>
-      <c r="B76" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C76" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2867,7 +2867,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F76" s="3" t="inlineStr">
+      <c r="F76" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2879,17 +2879,17 @@
           <t>14:10</t>
         </is>
       </c>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
+      <c r="B77" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C77" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D77" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2899,7 +2899,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F77" s="3" t="inlineStr">
+      <c r="F77" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2911,17 +2911,17 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
+      <c r="B78" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C78" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2931,7 +2931,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F78" s="3" t="inlineStr">
+      <c r="F78" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2943,17 +2943,17 @@
           <t>14:20</t>
         </is>
       </c>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
+      <c r="B79" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2963,7 +2963,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F79" s="3" t="inlineStr">
+      <c r="F79" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2975,17 +2975,17 @@
           <t>14:25</t>
         </is>
       </c>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
+      <c r="B80" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C80" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -2995,7 +2995,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F80" s="3" t="inlineStr">
+      <c r="F80" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3007,17 +3007,17 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="B81" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C81" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D81" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3027,7 +3027,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F81" s="3" t="inlineStr">
+      <c r="F81" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3039,17 +3039,17 @@
           <t>14:35</t>
         </is>
       </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="B82" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C82" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3059,7 +3059,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F82" s="3" t="inlineStr">
+      <c r="F82" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3071,7 +3071,7 @@
           <t>14:40</t>
         </is>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B83" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3081,7 +3081,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="D83" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3091,7 +3091,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F83" s="3" t="inlineStr">
+      <c r="F83" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3103,7 +3103,7 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B84" s="3" t="inlineStr">
+      <c r="B84" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3113,7 +3113,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D84" s="3" t="inlineStr">
+      <c r="D84" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3123,7 +3123,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F84" s="3" t="inlineStr">
+      <c r="F84" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3135,7 +3135,7 @@
           <t>14:50</t>
         </is>
       </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3145,7 +3145,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D85" s="3" t="inlineStr">
+      <c r="D85" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3155,7 +3155,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F85" s="3" t="inlineStr">
+      <c r="F85" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3167,7 +3167,7 @@
           <t>14:55</t>
         </is>
       </c>
-      <c r="B86" s="3" t="inlineStr">
+      <c r="B86" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3177,7 +3177,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D86" s="3" t="inlineStr">
+      <c r="D86" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3187,7 +3187,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F86" s="3" t="inlineStr">
+      <c r="F86" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3199,7 +3199,7 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B87" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3209,7 +3209,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D87" s="3" t="inlineStr">
+      <c r="D87" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3219,7 +3219,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F87" s="3" t="inlineStr">
+      <c r="F87" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3231,7 +3231,7 @@
           <t>15:05</t>
         </is>
       </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3241,7 +3241,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D88" s="3" t="inlineStr">
+      <c r="D88" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3251,7 +3251,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F88" s="3" t="inlineStr">
+      <c r="F88" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3263,7 +3263,7 @@
           <t>15:10</t>
         </is>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="B89" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3273,7 +3273,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D89" s="3" t="inlineStr">
+      <c r="D89" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3283,7 +3283,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F89" s="3" t="inlineStr">
+      <c r="F89" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3295,7 +3295,7 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B90" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3305,7 +3305,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D90" s="3" t="inlineStr">
+      <c r="D90" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3315,7 +3315,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F90" s="3" t="inlineStr">
+      <c r="F90" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3327,7 +3327,7 @@
           <t>15:20</t>
         </is>
       </c>
-      <c r="B91" s="3" t="inlineStr">
+      <c r="B91" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3337,17 +3337,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D91" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E91" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F91" s="3" t="inlineStr">
+      <c r="D91" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E91" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F91" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3359,7 +3359,7 @@
           <t>15:25</t>
         </is>
       </c>
-      <c r="B92" s="3" t="inlineStr">
+      <c r="B92" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3369,17 +3369,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E92" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F92" s="3" t="inlineStr">
+      <c r="D92" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E92" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3391,7 +3391,7 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="B93" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3401,17 +3401,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D93" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F93" s="3" t="inlineStr">
+      <c r="D93" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E93" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F93" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3423,7 +3423,7 @@
           <t>15:35</t>
         </is>
       </c>
-      <c r="B94" s="3" t="inlineStr">
+      <c r="B94" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3433,17 +3433,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F94" s="3" t="inlineStr">
+      <c r="D94" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E94" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3455,7 +3455,7 @@
           <t>15:40</t>
         </is>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="B95" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3465,17 +3465,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D95" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F95" s="3" t="inlineStr">
+      <c r="D95" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E95" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F95" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3487,7 +3487,7 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B96" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3497,17 +3497,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D96" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E96" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F96" s="3" t="inlineStr">
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E96" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3519,7 +3519,7 @@
           <t>15:50</t>
         </is>
       </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="B97" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3529,17 +3529,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D97" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E97" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F97" s="3" t="inlineStr">
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E97" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F97" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3551,7 +3551,7 @@
           <t>15:55</t>
         </is>
       </c>
-      <c r="B98" s="3" t="inlineStr">
+      <c r="B98" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3561,17 +3561,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E98" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F98" s="3" t="inlineStr">
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E98" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3583,7 +3583,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="B99" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3593,17 +3593,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E99" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F99" s="3" t="inlineStr">
+      <c r="D99" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E99" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F99" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3615,7 +3615,7 @@
           <t>16:05</t>
         </is>
       </c>
-      <c r="B100" s="3" t="inlineStr">
+      <c r="B100" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3625,17 +3625,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D100" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E100" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F100" s="3" t="inlineStr">
+      <c r="D100" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E100" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3647,27 +3647,27 @@
           <t>16:10</t>
         </is>
       </c>
-      <c r="B101" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E101" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F101" s="3" t="inlineStr">
+      <c r="B101" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D101" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E101" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F101" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3679,27 +3679,27 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B102" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E102" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F102" s="3" t="inlineStr">
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D102" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E102" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3711,27 +3711,27 @@
           <t>16:20</t>
         </is>
       </c>
-      <c r="B103" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E103" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F103" s="3" t="inlineStr">
+      <c r="B103" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C103" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D103" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E103" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F103" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3743,27 +3743,27 @@
           <t>16:25</t>
         </is>
       </c>
-      <c r="B104" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E104" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F104" s="3" t="inlineStr">
+      <c r="B104" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C104" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D104" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E104" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3775,27 +3775,27 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B105" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E105" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F105" s="3" t="inlineStr">
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C105" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D105" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E105" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F105" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3807,27 +3807,27 @@
           <t>16:35</t>
         </is>
       </c>
-      <c r="B106" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F106" s="3" t="inlineStr">
+      <c r="B106" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C106" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D106" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E106" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3839,27 +3839,27 @@
           <t>16:40</t>
         </is>
       </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F107" s="3" t="inlineStr">
+      <c r="B107" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C107" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D107" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E107" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F107" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3871,27 +3871,27 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B108" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F108" s="3" t="inlineStr">
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C108" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D108" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E108" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3903,27 +3903,27 @@
           <t>16:50</t>
         </is>
       </c>
-      <c r="B109" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E109" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F109" s="3" t="inlineStr">
+      <c r="B109" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D109" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E109" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F109" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3935,27 +3935,27 @@
           <t>16:55</t>
         </is>
       </c>
-      <c r="B110" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E110" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F110" s="3" t="inlineStr">
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C110" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D110" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E110" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3967,27 +3967,27 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B111" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E111" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F111" s="3" t="inlineStr">
+      <c r="B111" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C111" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D111" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E111" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F111" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3999,27 +3999,27 @@
           <t>17:05</t>
         </is>
       </c>
-      <c r="B112" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E112" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F112" s="3" t="inlineStr">
+      <c r="B112" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C112" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D112" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E112" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4031,27 +4031,27 @@
           <t>17:10</t>
         </is>
       </c>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E113" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F113" s="3" t="inlineStr">
+      <c r="B113" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C113" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E113" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F113" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4063,27 +4063,27 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B114" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E114" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F114" s="3" t="inlineStr">
+      <c r="B114" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C114" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E114" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4095,27 +4095,27 @@
           <t>17:20</t>
         </is>
       </c>
-      <c r="B115" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D115" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E115" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F115" s="3" t="inlineStr">
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C115" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F115" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4127,27 +4127,27 @@
           <t>17:25</t>
         </is>
       </c>
-      <c r="B116" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D116" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F116" s="3" t="inlineStr">
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4159,27 +4159,27 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B117" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C117" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D117" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E117" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F117" s="3" t="inlineStr">
+      <c r="B117" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C117" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E117" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F117" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4191,27 +4191,27 @@
           <t>17:35</t>
         </is>
       </c>
-      <c r="B118" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C118" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D118" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E118" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F118" s="3" t="inlineStr">
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E118" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4223,27 +4223,27 @@
           <t>17:40</t>
         </is>
       </c>
-      <c r="B119" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D119" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E119" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F119" s="3" t="inlineStr">
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E119" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F119" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4255,27 +4255,27 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="B120" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E120" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F120" s="3" t="inlineStr">
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4287,27 +4287,27 @@
           <t>17:50</t>
         </is>
       </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D121" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F121" s="3" t="inlineStr">
+      <c r="B121" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C121" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D121" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E121" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F121" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4319,27 +4319,27 @@
           <t>17:55</t>
         </is>
       </c>
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C122" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D122" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E122" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F122" s="3" t="inlineStr">
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E122" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4351,27 +4351,27 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F123" s="3" t="inlineStr">
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E123" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F123" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4383,27 +4383,27 @@
           <t>18:05</t>
         </is>
       </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F124" s="3" t="inlineStr">
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E124" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4415,27 +4415,27 @@
           <t>18:10</t>
         </is>
       </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D125" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E125" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F125" s="3" t="inlineStr">
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C125" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D125" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E125" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F125" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4447,27 +4447,27 @@
           <t>18:15</t>
         </is>
       </c>
-      <c r="B126" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D126" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F126" s="3" t="inlineStr">
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E126" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4479,27 +4479,27 @@
           <t>18:20</t>
         </is>
       </c>
-      <c r="B127" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D127" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E127" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F127" s="3" t="inlineStr">
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F127" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4511,27 +4511,27 @@
           <t>18:25</t>
         </is>
       </c>
-      <c r="B128" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C128" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D128" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E128" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F128" s="3" t="inlineStr">
+      <c r="B128" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C128" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D128" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E128" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4543,27 +4543,27 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B129" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C129" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D129" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E129" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F129" s="3" t="inlineStr">
+      <c r="B129" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C129" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E129" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F129" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4575,27 +4575,27 @@
           <t>18:35</t>
         </is>
       </c>
-      <c r="B130" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D130" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E130" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F130" s="3" t="inlineStr">
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E130" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4607,27 +4607,27 @@
           <t>18:40</t>
         </is>
       </c>
-      <c r="B131" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D131" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E131" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F131" s="3" t="inlineStr">
+      <c r="B131" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C131" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D131" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E131" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F131" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4639,27 +4639,27 @@
           <t>18:45</t>
         </is>
       </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D132" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E132" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F132" s="3" t="inlineStr">
+      <c r="B132" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C132" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E132" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4671,27 +4671,27 @@
           <t>18:50</t>
         </is>
       </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D133" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E133" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F133" s="3" t="inlineStr">
+      <c r="B133" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C133" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D133" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E133" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F133" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4703,27 +4703,27 @@
           <t>18:55</t>
         </is>
       </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E134" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F134" s="3" t="inlineStr">
+      <c r="B134" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C134" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D134" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E134" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4735,27 +4735,27 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B135" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D135" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E135" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F135" s="3" t="inlineStr">
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C135" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E135" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F135" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4767,27 +4767,27 @@
           <t>19:05</t>
         </is>
       </c>
-      <c r="B136" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D136" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E136" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F136" s="3" t="inlineStr">
+      <c r="B136" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C136" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E136" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4799,27 +4799,27 @@
           <t>19:10</t>
         </is>
       </c>
-      <c r="B137" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D137" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F137" s="3" t="inlineStr">
+      <c r="B137" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C137" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E137" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F137" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4831,27 +4831,27 @@
           <t>19:15</t>
         </is>
       </c>
-      <c r="B138" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D138" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F138" s="3" t="inlineStr">
+      <c r="B138" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C138" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E138" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4863,27 +4863,27 @@
           <t>19:20</t>
         </is>
       </c>
-      <c r="B139" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D139" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E139" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F139" s="3" t="inlineStr">
+      <c r="B139" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E139" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F139" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4895,27 +4895,27 @@
           <t>19:25</t>
         </is>
       </c>
-      <c r="B140" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D140" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E140" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F140" s="3" t="inlineStr">
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C140" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E140" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4927,27 +4927,27 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B141" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D141" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E141" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F141" s="3" t="inlineStr">
+      <c r="B141" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C141" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D141" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E141" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F141" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4959,27 +4959,27 @@
           <t>19:35</t>
         </is>
       </c>
-      <c r="B142" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C142" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D142" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E142" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F142" s="3" t="inlineStr">
+      <c r="B142" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D142" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E142" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4991,27 +4991,27 @@
           <t>19:40</t>
         </is>
       </c>
-      <c r="B143" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C143" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D143" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E143" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F143" s="3" t="inlineStr">
+      <c r="B143" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C143" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D143" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E143" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F143" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -5023,27 +5023,27 @@
           <t>19:45</t>
         </is>
       </c>
-      <c r="B144" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C144" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D144" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E144" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F144" s="3" t="inlineStr">
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -5055,27 +5055,27 @@
           <t>19:50</t>
         </is>
       </c>
-      <c r="B145" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C145" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D145" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E145" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F145" s="3" t="inlineStr">
+      <c r="B145" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C145" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E145" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F145" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -5087,27 +5087,27 @@
           <t>19:55</t>
         </is>
       </c>
-      <c r="B146" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D146" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E146" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F146" s="3" t="inlineStr">
+      <c r="B146" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C146" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E146" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
